--- a/NumberOfMeasuresCuda.xlsx
+++ b/NumberOfMeasuresCuda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nando/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nando/GitHub/myCuda/CudaProjectGruppo12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{075C569A-9291-1A4E-9540-3239C999DE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04108E64-1D0F-114C-BDC9-02F001F735EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64000" yWindow="-9500" windowWidth="21600" windowHeight="37900" xr2:uid="{E4566897-8552-7A4F-886D-2CCD4E6798CB}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{E4566897-8552-7A4F-886D-2CCD4E6798CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="21">
   <si>
     <t>BLOCKSIZE </t>
   </si>
@@ -69,49 +69,10 @@
     <t>CON STREAMS</t>
   </si>
   <si>
-    <t xml:space="preserve">reduce </t>
-  </si>
-  <si>
-    <t>histo</t>
-  </si>
-  <si>
-    <t>semi</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co,mbine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">copy </t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>volte</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>VITO</t>
   </si>
   <si>
-    <t>Mattia</t>
-  </si>
-  <si>
-    <t>cami</t>
-  </si>
-  <si>
-    <t>nando</t>
-  </si>
-  <si>
     <t>32*32 — &gt; 1026</t>
-  </si>
-  <si>
-    <t>reset</t>
   </si>
   <si>
     <t>8*8 — &gt; 65</t>
@@ -142,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,12 +143,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Courier New"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -230,8 +185,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -547,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD24FC0A-7E70-8541-89EB-3E271DA02957}">
-  <dimension ref="A1:U68"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,7 +518,7 @@
     <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
     <col min="16" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" customWidth="1"/>
     <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.1640625" customWidth="1"/>
   </cols>
@@ -769,10 +723,10 @@
     </row>
     <row r="9" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="C9" s="3">
         <v>1179648</v>
@@ -813,16 +767,16 @@
     </row>
     <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="C10" s="3">
         <v>1179648</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>817998057</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -857,16 +811,16 @@
     </row>
     <row r="11" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="C11" s="3">
         <v>1179648</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>82492481</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -901,7 +855,7 @@
     </row>
     <row r="12" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>9999</v>
@@ -945,7 +899,7 @@
     </row>
     <row r="13" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <v>9999</v>
@@ -989,7 +943,7 @@
     </row>
     <row r="14" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>9999</v>
@@ -1033,16 +987,16 @@
     </row>
     <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="C15" s="3">
         <v>14155776</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>6279437849</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -1074,16 +1028,16 @@
     </row>
     <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="C16" s="3">
         <v>14155776</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>9815978753</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -1096,7 +1050,7 @@
         <v>1179648</v>
       </c>
       <c r="L16" s="5"/>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <v>769972724</v>
       </c>
       <c r="P16" s="3" t="s">
@@ -1115,16 +1069,16 @@
     </row>
     <row r="17" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="C17" s="3">
         <v>14155776</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>989525097</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -1360,10 +1314,10 @@
     </row>
     <row r="28" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B28" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="C28" s="3">
         <v>1179648</v>
@@ -1404,10 +1358,10 @@
     </row>
     <row r="29" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="C29" s="3">
         <v>1179648</v>
@@ -1432,10 +1386,10 @@
       <c r="N29" s="5"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q29" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="R29" s="3">
         <v>1179648</v>
@@ -1448,10 +1402,10 @@
     </row>
     <row r="30" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B30" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="C30" s="3">
         <v>1179648</v>
@@ -1476,10 +1430,10 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q30" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="R30" s="3">
         <v>1179648</v>
@@ -1492,7 +1446,7 @@
     </row>
     <row r="31" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3">
         <v>9999</v>
@@ -1520,10 +1474,10 @@
       <c r="N31" s="5"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q31" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="R31" s="3">
         <v>1179648</v>
@@ -1536,7 +1490,7 @@
     </row>
     <row r="32" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B32" s="3">
         <v>9999</v>
@@ -1564,7 +1518,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Q32" s="3">
         <v>9999</v>
@@ -1580,7 +1534,7 @@
     </row>
     <row r="33" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3">
         <v>9999</v>
@@ -1608,7 +1562,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Q33" s="3">
         <v>9999</v>
@@ -1624,10 +1578,10 @@
     </row>
     <row r="34" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B34" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="C34" s="3">
         <v>14155776</v>
@@ -1650,7 +1604,7 @@
         <v>3589672886</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="3">
         <v>9999</v>
@@ -1665,10 +1619,10 @@
     </row>
     <row r="35" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B35" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="C35" s="3">
         <v>14155776</v>
@@ -1691,10 +1645,10 @@
         <v>5328699724</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="Q35" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="R35" s="3">
         <v>14155776</v>
@@ -1706,10 +1660,10 @@
     </row>
     <row r="36" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B36" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="C36" s="3">
         <v>14155776</v>
@@ -1732,10 +1686,10 @@
         <v>5316001324</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="R36" s="3">
         <v>14155776</v>
@@ -1760,10 +1714,10 @@
         <v>5974770194</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Q37" s="3">
-        <v>99999999</v>
+        <v>9999999</v>
       </c>
       <c r="R37" s="3">
         <v>14155776</v>
@@ -1775,7 +1729,7 @@
     </row>
     <row r="38" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1787,565 +1741,6 @@
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="7">
-        <v>580386816</v>
-      </c>
-      <c r="E41" s="2">
-        <f>B41*C41</f>
-        <v>580386816</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="1">
-        <v>96</v>
-      </c>
-      <c r="C42" s="7">
-        <v>33386147</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2">
-        <f t="shared" ref="E42:E47" si="0">B42*C42</f>
-        <v>3205070112</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43">
-        <v>16</v>
-      </c>
-      <c r="C43" s="7">
-        <v>207375</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="0"/>
-        <v>3318000</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="1">
-        <v>96</v>
-      </c>
-      <c r="C44" s="7">
-        <v>9437184</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="0"/>
-        <v>905969664</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1">
-        <v>48365568</v>
-      </c>
-      <c r="K44" s="2">
-        <f>H44*I44</f>
-        <v>48365568</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="1">
-        <v>96</v>
-      </c>
-      <c r="C45" s="7">
-        <v>23219</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="0"/>
-        <v>2229024</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="1">
-        <v>8</v>
-      </c>
-      <c r="I45" s="1">
-        <v>33557706</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="2">
-        <f t="shared" ref="K45:K50" si="1">H45*I45</f>
-        <v>268461648</v>
-      </c>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="3"/>
-    </row>
-    <row r="46" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7">
-        <v>67580</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="0"/>
-        <v>67580</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46">
-        <v>8</v>
-      </c>
-      <c r="I46">
-        <v>9437184</v>
-      </c>
-      <c r="K46" s="2">
-        <f t="shared" si="1"/>
-        <v>75497472</v>
-      </c>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="6"/>
-    </row>
-    <row r="47" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="1">
-        <v>96</v>
-      </c>
-      <c r="C47" s="7">
-        <v>7077888</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="0"/>
-        <v>679477248</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="1">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1">
-        <v>43004</v>
-      </c>
-      <c r="K47" s="2">
-        <f t="shared" si="1"/>
-        <v>43004</v>
-      </c>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="6"/>
-    </row>
-    <row r="48" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="G48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="1">
-        <v>8</v>
-      </c>
-      <c r="I48" s="1">
-        <v>40108132</v>
-      </c>
-      <c r="K48" s="2">
-        <f t="shared" si="1"/>
-        <v>320865056</v>
-      </c>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="6"/>
-    </row>
-    <row r="49" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="E49" s="2">
-        <f>SUM(E41:E48)</f>
-        <v>5376518444</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="1">
-        <v>8</v>
-      </c>
-      <c r="I49" s="1">
-        <v>14609</v>
-      </c>
-      <c r="K49" s="2">
-        <f t="shared" si="1"/>
-        <v>116872</v>
-      </c>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="6"/>
-    </row>
-    <row r="50" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="G50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="1">
-        <v>8</v>
-      </c>
-      <c r="I50" s="1">
-        <v>7077888</v>
-      </c>
-      <c r="K50" s="2">
-        <f t="shared" si="1"/>
-        <v>56623104</v>
-      </c>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="6"/>
-    </row>
-    <row r="51" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="6"/>
-    </row>
-    <row r="52" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="K52" s="2">
-        <f>SUM(K44:K51)</f>
-        <v>769972724</v>
-      </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="6"/>
-    </row>
-    <row r="53" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="6"/>
-    </row>
-    <row r="54" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="6"/>
-    </row>
-    <row r="55" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="6"/>
-    </row>
-    <row r="56" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="6"/>
-    </row>
-    <row r="57" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="1">
-        <v>1</v>
-      </c>
-      <c r="C57" s="7">
-        <v>580386816</v>
-      </c>
-      <c r="E57" s="2">
-        <f>B57*C57</f>
-        <v>580386816</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1">
-        <v>8</v>
-      </c>
-      <c r="C58" s="7">
-        <v>400357076</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2">
-        <f>B58*C58</f>
-        <v>3202856608</v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59">
-        <v>8</v>
-      </c>
-      <c r="C59" s="7">
-        <v>113246208</v>
-      </c>
-      <c r="E59" s="2">
-        <f>B59*C59</f>
-        <v>905969664</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="7">
-        <v>67580</v>
-      </c>
-      <c r="E60" s="2">
-        <f t="shared" ref="E60:E63" si="2">B60*C60</f>
-        <v>67580</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="1">
-        <v>1</v>
-      </c>
-      <c r="I60" s="1">
-        <v>4030464</v>
-      </c>
-      <c r="K60" s="2">
-        <f>H60*I60</f>
-        <v>4030464</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="1">
-        <v>8</v>
-      </c>
-      <c r="C61" s="7">
-        <v>410517634</v>
-      </c>
-      <c r="E61" s="2">
-        <f t="shared" si="2"/>
-        <v>3284141072</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="1">
-        <v>5</v>
-      </c>
-      <c r="I61" s="1">
-        <v>2796520</v>
-      </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="2">
-        <f t="shared" ref="K61:K66" si="3">H61*I61</f>
-        <v>13982600</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="1">
-        <v>8</v>
-      </c>
-      <c r="C62" s="7">
-        <v>173009</v>
-      </c>
-      <c r="E62" s="2">
-        <f t="shared" si="2"/>
-        <v>1384072</v>
-      </c>
-      <c r="G62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62">
-        <v>5</v>
-      </c>
-      <c r="I62">
-        <v>786432</v>
-      </c>
-      <c r="K62" s="2">
-        <f t="shared" si="3"/>
-        <v>3932160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" s="1">
-        <v>8</v>
-      </c>
-      <c r="C63" s="7">
-        <v>84934656</v>
-      </c>
-      <c r="E63" s="2">
-        <f t="shared" si="2"/>
-        <v>679477248</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="1">
-        <v>1</v>
-      </c>
-      <c r="I63" s="1">
-        <v>43004</v>
-      </c>
-      <c r="K63" s="2">
-        <f t="shared" si="3"/>
-        <v>43004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="G64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="1">
-        <v>5</v>
-      </c>
-      <c r="I64" s="1">
-        <v>2850946</v>
-      </c>
-      <c r="K64" s="2">
-        <f t="shared" si="3"/>
-        <v>14254730</v>
-      </c>
-    </row>
-    <row r="65" spans="5:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="E65" s="2">
-        <f>SUM(E57:E64)</f>
-        <v>8654283060</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="1">
-        <v>5</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1409</v>
-      </c>
-      <c r="K65" s="2">
-        <f t="shared" si="3"/>
-        <v>7045</v>
-      </c>
-    </row>
-    <row r="66" spans="5:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="G66" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="1">
-        <v>5</v>
-      </c>
-      <c r="I66" s="1">
-        <v>589824</v>
-      </c>
-      <c r="K66" s="2">
-        <f t="shared" si="3"/>
-        <v>2949120</v>
-      </c>
-    </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="K68" s="2">
-        <f>SUM(K60:K67)</f>
-        <v>39199123</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
